--- a/budget-720023902.xlsx
+++ b/budget-720023902.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>цена</t>
   </si>
@@ -34,142 +34,52 @@
     <t>id</t>
   </si>
   <si>
+    <t>TRY</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>2022-07-17</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>RUB</t>
   </si>
   <si>
-    <t>fdsgdfgnfgh</t>
+    <t>cola</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Renault Kaptur</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>transfer</t>
+  </si>
+  <si>
+    <t>vacation</t>
   </si>
   <si>
     <t>2022-07-16</t>
   </si>
   <si>
-    <t>dfgdfh</t>
-  </si>
-  <si>
-    <t>sdgdg</t>
-  </si>
-  <si>
-    <t>TRY</t>
-  </si>
-  <si>
-    <t>dfghggfjf</t>
-  </si>
-  <si>
-    <t>sdkgfmfkhmd</t>
-  </si>
-  <si>
-    <t>2022-07-15</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>2022-07-09</t>
-  </si>
-  <si>
-    <t>такси</t>
-  </si>
-  <si>
-    <t>мармарис</t>
-  </si>
-  <si>
-    <t>2022-07-07</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>xnj=nj</t>
-  </si>
-  <si>
-    <t>sfdgd</t>
-  </si>
-  <si>
-    <t>товар1</t>
-  </si>
-  <si>
-    <t>статья1</t>
-  </si>
-  <si>
-    <t>2022-07-04</t>
-  </si>
-  <si>
-    <t>kfkf</t>
-  </si>
-  <si>
-    <t>лалала</t>
-  </si>
-  <si>
-    <t>2022-06-30</t>
-  </si>
-  <si>
-    <t>qwerty</t>
-  </si>
-  <si>
-    <t>qwerty2</t>
-  </si>
-  <si>
-    <t>2022-06-24</t>
-  </si>
-  <si>
-    <t>dfdsgfhdgfjf</t>
-  </si>
-  <si>
-    <t>gfdh</t>
-  </si>
-  <si>
-    <t>asdfg</t>
-  </si>
-  <si>
-    <t>asdfg2</t>
-  </si>
-  <si>
-    <t>2022-06-23</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>hdndgh</t>
-  </si>
-  <si>
-    <t>bdfgnfngf</t>
-  </si>
-  <si>
-    <t>2022-06-18</t>
-  </si>
-  <si>
-    <t>fdbnf</t>
-  </si>
-  <si>
-    <t>dfgnhgfmfhm</t>
-  </si>
-  <si>
-    <t>2022-05-19</t>
-  </si>
-  <si>
-    <t>dfhklkmghmnh</t>
-  </si>
-  <si>
-    <t>464574567</t>
-  </si>
-  <si>
-    <t>2022-05-18</t>
-  </si>
-  <si>
-    <t>херня за рубли</t>
-  </si>
-  <si>
-    <t>2021-05-13</t>
+    <t>potato tips</t>
+  </si>
+  <si>
+    <t>2022-07-05</t>
   </si>
 </sst>
 </file>
@@ -501,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,7 +439,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>10000</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -538,313 +448,113 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3">
         <v>8</v>
-      </c>
-      <c r="F3">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
         <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="F7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>10000</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>100</v>
-      </c>
-      <c r="B9" t="s">
         <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>100</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>100</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>150</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>200</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>150</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>100</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>40000</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>1000</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/budget-720023902.xlsx
+++ b/budget-720023902.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>цена</t>
   </si>
@@ -34,6 +34,54 @@
     <t>id</t>
   </si>
   <si>
+    <t>RUB</t>
+  </si>
+  <si>
+    <t>sudbury</t>
+  </si>
+  <si>
+    <t>hdhdhd</t>
+  </si>
+  <si>
+    <t>2022-07-18</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>ib</t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>ghgh</t>
+  </si>
+  <si>
+    <t>jjjjk</t>
+  </si>
+  <si>
+    <t>dudhfh</t>
+  </si>
+  <si>
+    <t>shd hdhd h</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>dffdd</t>
+  </si>
+  <si>
+    <t>GHG</t>
+  </si>
+  <si>
+    <t>UUU</t>
+  </si>
+  <si>
     <t>TRY</t>
   </si>
   <si>
@@ -52,21 +100,27 @@
     <t>required</t>
   </si>
   <si>
-    <t>RUB</t>
-  </si>
-  <si>
     <t>cola</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
     <t>Renault Kaptur</t>
   </si>
   <si>
     <t>car</t>
   </si>
   <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>Дом в Калифорнии</t>
+  </si>
+  <si>
+    <t>Было бы круто</t>
+  </si>
+  <si>
     <t>transfer</t>
   </si>
   <si>
@@ -76,10 +130,25 @@
     <t>2022-07-16</t>
   </si>
   <si>
+    <t>Heheh</t>
+  </si>
+  <si>
+    <t>Eyeyey</t>
+  </si>
+  <si>
     <t>potato tips</t>
   </si>
   <si>
     <t>2022-07-05</t>
+  </si>
+  <si>
+    <t>TTT</t>
+  </si>
+  <si>
+    <t>YYY</t>
+  </si>
+  <si>
+    <t>2022-05-13</t>
   </si>
 </sst>
 </file>
@@ -411,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,7 +508,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -454,27 +523,27 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -482,79 +551,279 @@
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>15000</v>
+        <v>1000000</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>1200</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
         <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>15000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>100000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>1500</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>200</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>200</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
